--- a/Sales-2025-Target-Mold.xlsx
+++ b/Sales-2025-Target-Mold.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\OneDrive - Siam Inter Mold Co.,Ltd\Desktop\Big-Bag\SIM-Main-App\Sales-report-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaic\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{367C7DE3-DA46-4939-A7ED-C94DCF1ED583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEA5B77-1C59-4FC7-B45C-01BA0AE69DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0D039319-1A48-4691-9008-71910C9BBA70}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,7 +532,7 @@
         <v>3750000</v>
       </c>
       <c r="F2" s="1">
-        <v>3750000</v>
+        <v>11750000</v>
       </c>
       <c r="G2" s="1">
         <v>3750000</v>
@@ -541,7 +541,7 @@
         <v>3750000</v>
       </c>
       <c r="I2" s="1">
-        <v>3750000</v>
+        <v>9750000</v>
       </c>
       <c r="J2" s="1">
         <v>3550000</v>
@@ -550,7 +550,7 @@
         <v>3650000</v>
       </c>
       <c r="L2" s="1">
-        <v>3650000</v>
+        <v>9650000</v>
       </c>
     </row>
   </sheetData>
